--- a/ig/nr-narrative/ValueSet-fr-core-civility-rass.xlsx
+++ b/ig/nr-narrative/ValueSet-fr-core-civility-rass.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T09:02:09+00:00</t>
+    <t>2023-09-19T07:10:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
